--- a/data/U_pisi colonies.xlsx
+++ b/data/U_pisi colonies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salva\Documents\GitHub\Rust-collection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A70EDD-8A2E-4837-8217-7A222C0CDA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02B2BDF-2075-4729-BAB0-D1399CA8EF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{85B69E26-5CFE-4A0A-938C-50EB2E92442D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5524" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5517" uniqueCount="190">
   <si>
     <t>entrada</t>
   </si>
@@ -665,12 +665,6 @@
     </r>
   </si>
   <si>
-    <t>necrosis_célula</t>
-  </si>
-  <si>
-    <t>necrosis_epidermis</t>
-  </si>
-  <si>
     <t>early_abortion</t>
   </si>
   <si>
@@ -683,22 +677,10 @@
     <t>P. sativum subsp. elatius var. elatius</t>
   </si>
   <si>
-    <t>F2018</t>
+    <t>necrosis_asociada</t>
   </si>
   <si>
-    <t>P2018</t>
-  </si>
-  <si>
-    <t>F2019</t>
-  </si>
-  <si>
-    <t>P2019</t>
-  </si>
-  <si>
-    <t>F2020</t>
-  </si>
-  <si>
-    <t>P2020</t>
+    <t>Area_µm</t>
   </si>
 </sst>
 </file>
@@ -959,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1067,6 +1049,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,7 +1075,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1124,7 +1112,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1198,7 +1186,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1384,7 +1372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="479386704"/>
@@ -1446,7 +1434,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="479380472"/>
@@ -1494,7 +1482,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2103,7 +2091,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2405,7 +2393,7 @@
       <selection activeCell="J218" sqref="J218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.21875" style="20" bestFit="1" customWidth="1"/>
@@ -13859,7 +13847,7 @@
       <selection pane="bottomLeft" activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="18"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -24500,7 +24488,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
@@ -25009,7 +24997,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
@@ -25452,7 +25440,7 @@
       <selection pane="bottomLeft" activeCell="I922" sqref="I922"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -71337,7 +71325,7 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
@@ -73261,7 +73249,7 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="59" bestFit="1" customWidth="1"/>
@@ -74609,18 +74597,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ADCF30-913E-4135-9E9C-CAB44D52B3AA}">
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -74628,26 +74616,20 @@
     <col min="9" max="9" width="9.6640625" style="75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" style="75" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="3.44140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="21" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" style="83" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="84" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" style="84" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.44140625" style="84" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" style="84" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="5.88671875" style="84" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.44140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.88671875" style="86" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>76</v>
       </c>
@@ -74673,76 +74655,55 @@
         <v>147</v>
       </c>
       <c r="I1" s="74" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="J1" s="74" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L1" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="M1" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="O1" s="72" t="s">
-        <v>184</v>
+      <c r="O1" s="73" t="s">
+        <v>135</v>
       </c>
       <c r="P1" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="73" t="s">
         <v>136</v>
       </c>
+      <c r="Q1" s="78" t="s">
+        <v>108</v>
+      </c>
       <c r="R1" s="78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S1" s="78" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="T1" s="78" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="U1" s="78" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="V1" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="W1" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="X1" s="78" t="s">
+      <c r="W1" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="Y1" s="78" t="s">
+      <c r="X1" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="Z1" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA1" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB1" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC1" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD1" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE1" s="70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
         <v>148</v>
       </c>
@@ -74785,41 +74746,39 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="O2" s="21">
+        <v>0.52284263959390864</v>
       </c>
       <c r="P2" s="21">
-        <v>0.52284263959390864</v>
-      </c>
-      <c r="Q2" s="21">
         <v>0.37488483261207628</v>
       </c>
-      <c r="R2" s="79">
+      <c r="Q2" s="79">
         <v>3.66</v>
       </c>
+      <c r="R2" s="80">
+        <v>75.599999999999994</v>
+      </c>
       <c r="S2" s="80">
-        <v>75.599999999999994</v>
+        <v>9.42</v>
       </c>
       <c r="T2" s="80">
-        <v>9.42</v>
+        <v>21</v>
       </c>
       <c r="U2" s="80">
-        <v>21</v>
-      </c>
-      <c r="V2" s="80">
         <v>4.5</v>
       </c>
-      <c r="W2" s="80">
-        <v>12</v>
-      </c>
-      <c r="X2" s="80">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="80">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <v>19.839156714361199</v>
+      </c>
+      <c r="W2" s="75">
+        <v>17.8791137708542</v>
+      </c>
+      <c r="X2" s="75">
+        <v>24.422311274436002</v>
+      </c>
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="67" t="s">
         <v>148</v>
       </c>
@@ -74860,43 +74819,41 @@
         <v>12.5</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
         <v>2.5</v>
       </c>
+      <c r="O3" s="21">
+        <v>0.25108225108225107</v>
+      </c>
       <c r="P3" s="21">
-        <v>0.25108225108225107</v>
-      </c>
-      <c r="Q3" s="21">
         <v>0.38148632872445704</v>
       </c>
-      <c r="R3" s="79">
+      <c r="Q3" s="79">
         <v>3.66</v>
       </c>
+      <c r="R3" s="80">
+        <v>78.8</v>
+      </c>
       <c r="S3" s="80">
-        <v>78.8</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="T3" s="80">
-        <v>9.5399999999999991</v>
+        <v>23</v>
       </c>
       <c r="U3" s="80">
-        <v>23</v>
-      </c>
-      <c r="V3" s="80">
         <v>10</v>
       </c>
-      <c r="W3" s="80">
-        <v>5</v>
-      </c>
-      <c r="X3" s="80">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V3" s="21">
+        <v>11.014447638574</v>
+      </c>
+      <c r="W3" s="75">
+        <v>14.2254192906155</v>
+      </c>
+      <c r="X3" s="75">
+        <v>12.705473911537</v>
+      </c>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -74937,43 +74894,41 @@
         <v>10.638297872340425</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
         <v>4.25</v>
       </c>
+      <c r="O4" s="21">
+        <v>0.37426900584795325</v>
+      </c>
       <c r="P4" s="21">
-        <v>0.37426900584795325</v>
-      </c>
-      <c r="Q4" s="21">
         <v>0.35704193973566345</v>
       </c>
-      <c r="R4" s="79">
-        <v>3</v>
+      <c r="Q4" s="79">
+        <v>3</v>
+      </c>
+      <c r="R4" s="80">
+        <v>80.7</v>
       </c>
       <c r="S4" s="80">
-        <v>80.7</v>
+        <v>9.44</v>
       </c>
       <c r="T4" s="80">
-        <v>9.44</v>
+        <v>25</v>
       </c>
       <c r="U4" s="80">
-        <v>25</v>
-      </c>
-      <c r="V4" s="80">
         <v>6.5</v>
       </c>
-      <c r="W4" s="80">
-        <v>10</v>
-      </c>
-      <c r="X4" s="80">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="80">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V4" s="21">
+        <v>16.527097556134599</v>
+      </c>
+      <c r="W4" s="75">
+        <v>16.361845308073502</v>
+      </c>
+      <c r="X4" s="75">
+        <v>16.5870092161393</v>
+      </c>
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>148</v>
       </c>
@@ -74984,7 +74939,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="67" t="s">
         <v>156</v>
@@ -75014,43 +74969,41 @@
         <v>10</v>
       </c>
       <c r="N5">
-        <v>7.5</v>
-      </c>
-      <c r="O5">
-        <v>12.5</v>
+        <v>20</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0.32093023255813957</v>
       </c>
       <c r="P5" s="21">
-        <v>0.32093023255813957</v>
-      </c>
-      <c r="Q5" s="21">
         <v>0.35385605026793787</v>
       </c>
-      <c r="R5" s="79">
-        <v>2</v>
+      <c r="Q5" s="79">
+        <v>2</v>
+      </c>
+      <c r="R5" s="80">
+        <v>9.8000000000000007</v>
       </c>
       <c r="S5" s="80">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="T5" s="80">
-        <v>9.6999999999999993</v>
+        <v>3</v>
       </c>
       <c r="U5" s="80">
         <v>3</v>
       </c>
-      <c r="V5" s="80">
-        <v>3</v>
-      </c>
-      <c r="W5" s="80">
-        <v>5</v>
-      </c>
-      <c r="X5" s="80">
-        <v>2.5</v>
-      </c>
-      <c r="Y5" s="80">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <v>18.544926023930799</v>
+      </c>
+      <c r="W5" s="75">
+        <v>13.020925515139499</v>
+      </c>
+      <c r="X5" s="75">
+        <v>10.5018772954745</v>
+      </c>
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>148</v>
       </c>
@@ -75061,7 +75014,7 @@
         <v>99</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="67" t="s">
         <v>39</v>
@@ -75093,41 +75046,39 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="O6" s="21">
+        <v>0.2080200501253133</v>
       </c>
       <c r="P6" s="21">
-        <v>0.2080200501253133</v>
-      </c>
-      <c r="Q6" s="21">
         <v>0.39769423024526962</v>
       </c>
-      <c r="R6" s="79">
-        <v>3</v>
+      <c r="Q6" s="79">
+        <v>3</v>
+      </c>
+      <c r="R6" s="80">
+        <v>38.9</v>
       </c>
       <c r="S6" s="80">
-        <v>38.9</v>
+        <v>9.25</v>
       </c>
       <c r="T6" s="80">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="U6" s="80">
-        <v>12</v>
-      </c>
-      <c r="V6" s="80">
         <v>11.6</v>
       </c>
-      <c r="W6" s="80">
-        <v>5</v>
-      </c>
-      <c r="X6" s="80">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="80">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V6" s="21">
+        <v>11.1563925644897</v>
+      </c>
+      <c r="W6" s="75">
+        <v>18.146208604653498</v>
+      </c>
+      <c r="X6" s="75">
+        <v>16.203693952407399</v>
+      </c>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>148</v>
       </c>
@@ -75138,7 +75089,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E7" s="67" t="s">
         <v>39</v>
@@ -75170,41 +75121,39 @@
       <c r="N7">
         <v>6.66</v>
       </c>
-      <c r="O7">
-        <v>0</v>
+      <c r="O7" s="21">
+        <v>0.23920265780730895</v>
       </c>
       <c r="P7" s="21">
-        <v>0.23920265780730895</v>
-      </c>
-      <c r="Q7" s="21">
         <v>0.3533310383444706</v>
       </c>
-      <c r="R7" s="79">
-        <v>3</v>
+      <c r="Q7" s="79">
+        <v>3</v>
+      </c>
+      <c r="R7" s="80">
+        <v>35.6</v>
       </c>
       <c r="S7" s="80">
-        <v>35.6</v>
+        <v>9.76</v>
       </c>
       <c r="T7" s="80">
-        <v>9.76</v>
+        <v>6</v>
       </c>
       <c r="U7" s="80">
-        <v>6</v>
-      </c>
-      <c r="V7" s="80">
         <v>6.5</v>
       </c>
-      <c r="W7" s="80">
-        <v>8</v>
-      </c>
-      <c r="X7" s="80">
-        <v>2.5</v>
-      </c>
-      <c r="Y7" s="80">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V7" s="21">
+        <v>19.730819648083799</v>
+      </c>
+      <c r="W7" s="75">
+        <v>14.6105043914789</v>
+      </c>
+      <c r="X7" s="75">
+        <v>15.402282727954001</v>
+      </c>
+      <c r="Y7"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>148</v>
       </c>
@@ -75215,7 +75164,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" s="67">
         <v>1140175</v>
@@ -75247,41 +75196,39 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>0</v>
+      <c r="O8" s="21">
+        <v>0.37117903930131002</v>
       </c>
       <c r="P8" s="21">
-        <v>0.37117903930131002</v>
-      </c>
-      <c r="Q8" s="21">
         <v>0.35878402661985537</v>
       </c>
-      <c r="R8" s="79">
-        <v>3</v>
+      <c r="Q8" s="79">
+        <v>3</v>
+      </c>
+      <c r="R8" s="80">
+        <v>15.4</v>
       </c>
       <c r="S8" s="80">
-        <v>15.4</v>
+        <v>10.16</v>
       </c>
       <c r="T8" s="80">
-        <v>10.16</v>
+        <v>6</v>
       </c>
       <c r="U8" s="80">
-        <v>6</v>
-      </c>
-      <c r="V8" s="80">
         <v>5.5</v>
       </c>
-      <c r="W8" s="80">
-        <v>5</v>
-      </c>
-      <c r="X8" s="80">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="80">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V8" s="21">
+        <v>15.318613239328901</v>
+      </c>
+      <c r="W8" s="75">
+        <v>13.0966426575506</v>
+      </c>
+      <c r="X8" s="75">
+        <v>19.098259473630101</v>
+      </c>
+      <c r="Y8"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>148</v>
       </c>
@@ -75292,7 +75239,7 @@
         <v>71</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E9" s="67">
         <v>1145176</v>
@@ -75322,41 +75269,39 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>0</v>
+      <c r="O9" s="21">
+        <v>0.27972027972027969</v>
       </c>
       <c r="P9" s="21">
-        <v>0.27972027972027969</v>
-      </c>
-      <c r="Q9" s="21">
         <v>0.39601781585881873</v>
       </c>
-      <c r="R9" s="79">
+      <c r="Q9" s="79">
         <v>2.2999999999999998</v>
       </c>
+      <c r="R9" s="80">
+        <v>14</v>
+      </c>
       <c r="S9" s="80">
-        <v>14</v>
+        <v>10.18</v>
       </c>
       <c r="T9" s="80">
-        <v>10.18</v>
+        <v>5</v>
       </c>
       <c r="U9" s="80">
-        <v>5</v>
-      </c>
-      <c r="V9" s="80">
         <v>5.2</v>
       </c>
-      <c r="W9" s="80">
-        <v>4</v>
-      </c>
-      <c r="X9" s="80">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="21">
+        <v>15.252905593173599</v>
+      </c>
+      <c r="W9" s="75">
+        <v>11.8849597233471</v>
+      </c>
+      <c r="X9" s="75">
+        <v>12.8996238410414</v>
+      </c>
+      <c r="Y9"/>
+    </row>
+    <row r="10" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>148</v>
       </c>
@@ -75399,41 +75344,38 @@
       <c r="N10" s="44">
         <v>0</v>
       </c>
-      <c r="O10" s="44">
-        <v>0</v>
+      <c r="O10" s="52">
+        <v>0.33928571428571425</v>
       </c>
       <c r="P10" s="52">
-        <v>0.33928571428571425</v>
-      </c>
-      <c r="Q10" s="52">
         <v>0.38346536139331588</v>
       </c>
-      <c r="R10" s="81">
+      <c r="Q10" s="81">
         <v>4</v>
       </c>
+      <c r="R10" s="82">
+        <v>66.7</v>
+      </c>
       <c r="S10" s="82">
-        <v>66.7</v>
+        <v>9.49</v>
       </c>
       <c r="T10" s="82">
-        <v>9.49</v>
+        <v>16</v>
       </c>
       <c r="U10" s="82">
-        <v>16</v>
-      </c>
-      <c r="V10" s="82">
         <v>6.7</v>
       </c>
-      <c r="W10" s="82">
-        <v>7</v>
-      </c>
-      <c r="X10" s="82">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V10" s="44">
+        <v>17.3172787175846</v>
+      </c>
+      <c r="W10" s="76">
+        <v>11.6326162682349</v>
+      </c>
+      <c r="X10" s="76">
+        <v>11.3053385261577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>158</v>
       </c>
@@ -75476,41 +75418,39 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
+      <c r="O11" s="21">
+        <v>0.37190082644628103</v>
       </c>
       <c r="P11" s="21">
-        <v>0.37190082644628103</v>
-      </c>
-      <c r="Q11" s="21">
         <v>0.30795755537694247</v>
       </c>
-      <c r="R11" s="79">
+      <c r="Q11" s="79">
         <v>4</v>
       </c>
+      <c r="R11" s="80">
+        <v>145.19999999999999</v>
+      </c>
       <c r="S11" s="80">
-        <v>145.19999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="T11" s="80">
-        <v>9.16</v>
+        <v>43</v>
       </c>
       <c r="U11" s="80">
-        <v>43</v>
-      </c>
-      <c r="V11" s="80">
         <v>16.100000000000001</v>
       </c>
-      <c r="W11" s="80">
-        <v>10.5</v>
-      </c>
-      <c r="X11" s="80">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="80">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>22.8572410478262</v>
+      </c>
+      <c r="W11" s="75">
+        <v>23.516076900242901</v>
+      </c>
+      <c r="X11" s="75">
+        <v>29.2731139328823</v>
+      </c>
+      <c r="Y11"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>158</v>
       </c>
@@ -75553,41 +75493,39 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>0</v>
+      <c r="O12" s="21">
+        <v>0.29707112970711297</v>
       </c>
       <c r="P12" s="21">
-        <v>0.29707112970711297</v>
-      </c>
-      <c r="Q12" s="21">
         <v>0.33164207841931248</v>
       </c>
-      <c r="R12" s="79">
+      <c r="Q12" s="79">
         <v>4</v>
       </c>
+      <c r="R12" s="80">
+        <v>170.4</v>
+      </c>
       <c r="S12" s="80">
-        <v>170.4</v>
+        <v>9.61</v>
       </c>
       <c r="T12" s="80">
-        <v>9.61</v>
+        <v>47</v>
       </c>
       <c r="U12" s="80">
-        <v>47</v>
-      </c>
-      <c r="V12" s="80">
         <v>22.1</v>
       </c>
-      <c r="W12" s="80">
-        <v>12</v>
-      </c>
-      <c r="X12" s="80">
-        <v>22</v>
-      </c>
-      <c r="Y12" s="80">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <v>21.236802744549799</v>
+      </c>
+      <c r="W12" s="75">
+        <v>14.750274854060599</v>
+      </c>
+      <c r="X12" s="75">
+        <v>16.539949162014899</v>
+      </c>
+      <c r="Y12"/>
+    </row>
+    <row r="13" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>158</v>
       </c>
@@ -75630,41 +75568,38 @@
       <c r="N13" s="44">
         <v>0</v>
       </c>
-      <c r="O13" s="44">
-        <v>0</v>
+      <c r="O13" s="52">
+        <v>0.58278145695364247</v>
       </c>
       <c r="P13" s="52">
-        <v>0.58278145695364247</v>
-      </c>
-      <c r="Q13" s="52">
         <v>0.3359831030489896</v>
       </c>
-      <c r="R13" s="81">
+      <c r="Q13" s="81">
         <v>4</v>
       </c>
+      <c r="R13" s="82">
+        <v>158.19999999999999</v>
+      </c>
       <c r="S13" s="82">
-        <v>158.19999999999999</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="T13" s="82">
-        <v>8.9700000000000006</v>
+        <v>43</v>
       </c>
       <c r="U13" s="82">
-        <v>43</v>
-      </c>
-      <c r="V13" s="82">
         <v>21</v>
       </c>
-      <c r="W13" s="82">
-        <v>15</v>
-      </c>
-      <c r="X13" s="82">
-        <v>15.5</v>
-      </c>
-      <c r="Y13" s="82">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V13" s="44">
+        <v>23.438683735291502</v>
+      </c>
+      <c r="W13" s="76">
+        <v>22.816791432590499</v>
+      </c>
+      <c r="X13" s="76">
+        <v>27.2775208813432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>168</v>
       </c>
@@ -75707,41 +75642,39 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>0</v>
+      <c r="O14" s="21">
+        <v>0.430379746835443</v>
       </c>
       <c r="P14" s="21">
-        <v>0.430379746835443</v>
-      </c>
-      <c r="Q14" s="21">
         <v>0.32920321195509278</v>
       </c>
-      <c r="R14" s="79">
+      <c r="Q14" s="79">
         <v>4</v>
       </c>
+      <c r="R14" s="80">
+        <v>654.1</v>
+      </c>
       <c r="S14" s="80">
-        <v>654.1</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="T14" s="80">
-        <v>9.5500000000000007</v>
+        <v>254</v>
       </c>
       <c r="U14" s="80">
-        <v>254</v>
-      </c>
-      <c r="V14" s="80">
         <v>27.6</v>
       </c>
-      <c r="W14" s="80">
-        <v>20.5</v>
-      </c>
-      <c r="X14" s="80">
-        <v>42</v>
-      </c>
-      <c r="Y14" s="80">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <v>34.941936924584503</v>
+      </c>
+      <c r="W14" s="75">
+        <v>54.819773097674499</v>
+      </c>
+      <c r="X14" s="75">
+        <v>55.8678163869928</v>
+      </c>
+      <c r="Y14"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>168</v>
       </c>
@@ -75784,41 +75717,39 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>0</v>
+      <c r="O15" s="21">
+        <v>0.5587044534412956</v>
       </c>
       <c r="P15" s="21">
-        <v>0.5587044534412956</v>
-      </c>
-      <c r="Q15" s="21">
         <v>0.32594372211574868</v>
       </c>
-      <c r="R15" s="79">
+      <c r="Q15" s="79">
         <v>4</v>
       </c>
+      <c r="R15" s="80">
+        <v>875.1</v>
+      </c>
       <c r="S15" s="80">
-        <v>875.1</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="T15" s="80">
-        <v>9.4600000000000009</v>
+        <v>224</v>
       </c>
       <c r="U15" s="80">
-        <v>224</v>
-      </c>
-      <c r="V15" s="80">
         <v>45.8</v>
       </c>
-      <c r="W15" s="80">
-        <v>21</v>
-      </c>
-      <c r="X15" s="80">
-        <v>30.5</v>
-      </c>
-      <c r="Y15" s="80">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V15" s="21">
+        <v>40.773412418171603</v>
+      </c>
+      <c r="W15" s="75">
+        <v>50.961280938713998</v>
+      </c>
+      <c r="X15" s="75">
+        <v>59.944330586942698</v>
+      </c>
+      <c r="Y15"/>
+    </row>
+    <row r="16" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>168</v>
       </c>
@@ -75861,51 +75792,87 @@
       <c r="N16" s="44">
         <v>0</v>
       </c>
-      <c r="O16" s="44">
-        <v>0</v>
+      <c r="O16" s="52">
+        <v>0.53977272727272729</v>
       </c>
       <c r="P16" s="52">
-        <v>0.53977272727272729</v>
-      </c>
-      <c r="Q16" s="52">
         <v>0.29026425761597285</v>
       </c>
-      <c r="R16" s="81">
+      <c r="Q16" s="81">
         <v>4</v>
       </c>
+      <c r="R16" s="82">
+        <v>379.9</v>
+      </c>
       <c r="S16" s="82">
-        <v>379.9</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="T16" s="82">
-        <v>9.3800000000000008</v>
+        <v>115</v>
       </c>
       <c r="U16" s="82">
-        <v>115</v>
-      </c>
-      <c r="V16" s="82">
         <v>28.6</v>
       </c>
-      <c r="W16" s="82">
-        <v>33.5</v>
-      </c>
-      <c r="X16" s="82">
-        <v>48.5</v>
-      </c>
-      <c r="Y16" s="82">
-        <v>40</v>
+      <c r="V16" s="44">
+        <v>53.192698688335199</v>
+      </c>
+      <c r="W16" s="76">
+        <v>62.282907277020499</v>
+      </c>
+      <c r="X16" s="76">
+        <v>58.058921909280201</v>
       </c>
     </row>
     <row r="18" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N18" s="75"/>
+      <c r="N18" s="67"/>
       <c r="O18" s="75"/>
     </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N19" s="67"/>
+    </row>
     <row r="20" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N20" s="75"/>
+      <c r="N20" s="67"/>
       <c r="O20" s="75"/>
     </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N21" s="67"/>
+    </row>
     <row r="22" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N22" s="75"/>
+      <c r="N22" s="67"/>
       <c r="O22" s="75"/>
+    </row>
+    <row r="23" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N23" s="67"/>
+    </row>
+    <row r="24" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N24" s="67"/>
+    </row>
+    <row r="25" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N25" s="67"/>
+    </row>
+    <row r="26" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N26" s="67"/>
+    </row>
+    <row r="27" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N27" s="67"/>
+    </row>
+    <row r="28" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N28" s="67"/>
+    </row>
+    <row r="29" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N29" s="67"/>
+    </row>
+    <row r="30" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N30" s="67"/>
+    </row>
+    <row r="31" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N31" s="67"/>
+    </row>
+    <row r="32" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N32" s="67"/>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N33" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
